--- a/data/Sample_Input_Latest.xlsx
+++ b/data/Sample_Input_Latest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VNarasi7\Servicenowautomate\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vigvi\Documents\GitHub\ServicenowJNJ\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433CD2FA-C3B5-438A-B70A-C77E01D4F0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA3F76B-68C4-46F1-89AD-6F629FE84250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Reference Change Request</t>
   </si>
@@ -44,46 +44,6 @@
   </si>
   <si>
     <t>New Change Request</t>
-  </si>
-  <si>
-    <t>CHG000011061311</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>This change has been prepared to install VM Instance &amp; SAP Build using Terraform and chef script  for CONCOURSE-IS-WD-SBX-SAH system on AWS
-1 VM instances will be built as part of the execution WD for the SAH system</t>
-  </si>
-  <si>
-    <t>GMED-IS-SCM-SBX-S28</t>
-  </si>
-  <si>
-    <t>SAP ENGINEERING L3</t>
-  </si>
-  <si>
-    <t>SAH CONCOURSED VM instance &amp; SAP Build  on AWS server</t>
-  </si>
-  <si>
-    <t>CHG000011061312</t>
-  </si>
-  <si>
-    <t>CHG000011061313</t>
-  </si>
-  <si>
-    <t>BACKTOBASICS-IS-ECC-SBX-RSG</t>
-  </si>
-  <si>
-    <t>BACKTOBASICS-IS-ECC-SBX-RSU</t>
-  </si>
-  <si>
-    <t>BACKTOBASICS-IS-NFE-SBX-XS2</t>
-  </si>
-  <si>
-    <t>CHG000011061315</t>
   </si>
 </sst>
 </file>
@@ -146,21 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -497,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,99 +493,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
